--- a/biology/Médecine/Cardiopathie_congénitale_cyanotique/Cardiopathie_congénitale_cyanotique.xlsx
+++ b/biology/Médecine/Cardiopathie_congénitale_cyanotique/Cardiopathie_congénitale_cyanotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cardiopathie_cong%C3%A9nitale_cyanotique</t>
+          <t>Cardiopathie_congénitale_cyanotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cardiopathie congénitale cyanotique est une cardiopathie congénitale qui survient lorsque le sang désoxygéné ne passe pas par les poumons et entre directement dans la circulation systémique ou qu'un mélange de sang oxygéné et non oxygéné pénètre dans la circulation systémique. Elle est causée par des défauts structurels du cœur (c.-à-d.: shunt du ventricule droit vers le gauche, shunt bi-directionnel, malposition des grandes artères) ou par tout état qui augmente la résistance vasculaire pulmonaire. Le résultat étant le développement de la circulation collatérale. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cardiopathie_cong%C3%A9nitale_cyanotique</t>
+          <t>Cardiopathie_congénitale_cyanotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hippocratisme digital ou « doigts en baguettes de tambour » (clubbing)
 Le patient en position accroupie
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardiopathie_cong%C3%A9nitale_cyanotique</t>
+          <t>Cardiopathie_congénitale_cyanotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les types
-Tétralogie de Fallot (ToF)
+          <t>Les types</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tétralogie de Fallot (ToF)
 Connexion veineuse pulmonaire totale anormale
 Syndrome du cœur gauche hypoplasique
 Transposition des grandes artères
@@ -563,8 +582,8 @@
 Atrésie pulmonaire
 Sténose pulmonaire (critique)
 Syndrome d'Eisenmenger (inversion du shunt dû à une hypertension pulmonaire).
-Un canal artériel persistant peut provoquer une cyanose à un stade avancé [1]
-Selon une étude sur la cardiopathie congénitale cyanotique à l'Université de Sohag, en Haute-Égypte, on a diagnostiqué 50 nouveau-nés souffraient de cardiopathie congénitale cyanotique. Ils ont conclu que la fréquence des cardiopathies congénitales cyanotiques était significative (9,5%), le type le plus courant étant la transposition des grandes artères. La majorité des nouveau-nés atteints de cardiopathie congénitale cyanotique ont survécu grâce à une prise en charge adaptée[2]. 
+Un canal artériel persistant peut provoquer une cyanose à un stade avancé 
+Selon une étude sur la cardiopathie congénitale cyanotique à l'Université de Sohag, en Haute-Égypte, on a diagnostiqué 50 nouveau-nés souffraient de cardiopathie congénitale cyanotique. Ils ont conclu que la fréquence des cardiopathies congénitales cyanotiques était significative (9,5%), le type le plus courant étant la transposition des grandes artères. La majorité des nouveau-nés atteints de cardiopathie congénitale cyanotique ont survécu grâce à une prise en charge adaptée. 
 </t>
         </is>
       </c>
@@ -575,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cardiopathie_cong%C3%A9nitale_cyanotique</t>
+          <t>Cardiopathie_congénitale_cyanotique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +612,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La morphine lors de la tétralogie de Fallot diminue les spasmes infundibulaires associés.
 Prophylactique : Propranolol (Inderal)
